--- a/OUTPUT/Department RankBook.xlsx
+++ b/OUTPUT/Department RankBook.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="III year cse" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="III year it" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="III year csbs" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="III year ai &amp; ds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="III year ece" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="III year cce" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="III year mech" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year cse" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year it" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year csbs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year ai &amp; ds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year ece" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year cce" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="III year mech" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E3:K130"/>
+  <dimension ref="E3:K132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3605</v>
+        <v>3529</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/145/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/142/</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6300</v>
+        <v>6252</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/252/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/251/</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="I7" s="5" t="n">
-        <v>7066</v>
+        <v>7020</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/283/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/281/</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>9543</v>
+        <v>9480</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/382/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/380/</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>9546</v>
+        <v>9483</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/382/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/380/</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>10795</v>
+        <v>10731</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/432/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/430/</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>11991</v>
+        <v>11921</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/480/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/477/</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="I12" s="1" t="n">
-        <v>12143</v>
+        <v>12073</v>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/486/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/483/</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="I13" s="1" t="n">
-        <v>12700</v>
+        <v>12628</v>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/508/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/506/</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="I14" s="1" t="n">
-        <v>14044</v>
+        <v>13973</v>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/562/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/559/</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>14244</v>
+        <v>14173</v>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/570/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/567/</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="I16" s="1" t="n">
-        <v>14370</v>
+        <v>14299</v>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/575/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/572/</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="I17" s="1" t="n">
-        <v>14677</v>
+        <v>14606</v>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/588/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/585/</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="I18" s="1" t="n">
-        <v>14742</v>
+        <v>14671</v>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/590/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/587/</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="I19" s="1" t="n">
-        <v>14777</v>
+        <v>14706</v>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/592/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/589/</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="I20" s="1" t="n">
-        <v>14795</v>
+        <v>14724</v>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/592/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/589/</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="I21" s="1" t="n">
-        <v>14891</v>
+        <v>14820</v>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/596/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/593/</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="I22" s="1" t="n">
-        <v>14902</v>
+        <v>14831</v>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/594/</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="I23" s="1" t="n">
-        <v>14913</v>
+        <v>14842</v>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/594/</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="I24" s="1" t="n">
-        <v>14914</v>
+        <v>14843</v>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/594/</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="I25" s="1" t="n">
-        <v>14923</v>
+        <v>14852</v>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/595/</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="I26" s="1" t="n">
-        <v>14924</v>
+        <v>14853</v>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/595/</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="I27" s="1" t="n">
-        <v>14931</v>
+        <v>14860</v>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/598/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/595/</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="I28" s="1" t="n">
-        <v>14944</v>
+        <v>14873</v>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/598/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/595/</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="I29" s="1" t="n">
-        <v>14951</v>
+        <v>14880</v>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/599/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/596/</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="I30" s="1" t="n">
-        <v>14958</v>
+        <v>14887</v>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/599/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/596/</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="I31" s="1" t="n">
-        <v>14972</v>
+        <v>14901</v>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/599/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="I32" s="1" t="n">
-        <v>14974</v>
+        <v>14903</v>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/599/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I33" s="1" t="n">
-        <v>14991</v>
+        <v>14920</v>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/600/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/597/</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="I34" s="1" t="n">
-        <v>15025</v>
+        <v>14954</v>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/601/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/599/</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="I35" s="1" t="n">
-        <v>15050</v>
+        <v>14979</v>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/602/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/600/</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="I36" s="1" t="n">
-        <v>16472</v>
+        <v>16403</v>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/659/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/657/</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="I37" s="1" t="n">
-        <v>18339</v>
+        <v>18272</v>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/734/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/731/</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="I38" s="1" t="n">
-        <v>19295</v>
+        <v>19233</v>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/772/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/770/</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="I39" s="1" t="n">
-        <v>19522</v>
+        <v>19462</v>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/781/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/779/</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="I40" s="1" t="n">
-        <v>19532</v>
+        <v>19472</v>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/782/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/779/</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="I41" s="1" t="n">
-        <v>19533</v>
+        <v>19473</v>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/782/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/779/</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="I42" s="1" t="n">
-        <v>19547</v>
+        <v>19487</v>
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/782/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/780/</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="I43" s="1" t="n">
-        <v>19562</v>
+        <v>19502</v>
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/783/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/781/</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="I44" s="1" t="n">
-        <v>19572</v>
+        <v>19512</v>
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/783/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/781/</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="I45" s="1" t="n">
-        <v>19581</v>
+        <v>19521</v>
       </c>
       <c r="J45" s="1" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/784/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/781/</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="I46" s="1" t="n">
-        <v>19586</v>
+        <v>19526</v>
       </c>
       <c r="J46" s="1" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/784/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/782/</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="I47" s="1" t="n">
-        <v>19621</v>
+        <v>19561</v>
       </c>
       <c r="J47" s="1" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/785/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/783/</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="I48" s="1" t="n">
-        <v>19656</v>
+        <v>19596</v>
       </c>
       <c r="J48" s="1" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/787/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/784/</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="I49" s="1" t="n">
-        <v>19682</v>
+        <v>19622</v>
       </c>
       <c r="J49" s="1" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/788/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/785/</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="I50" s="1" t="n">
-        <v>19700</v>
+        <v>19640</v>
       </c>
       <c r="J50" s="1" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/788/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/786/</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="I51" s="1" t="n">
-        <v>19739</v>
+        <v>19679</v>
       </c>
       <c r="J51" s="1" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/790/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/788/</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="I52" s="1" t="n">
-        <v>19817</v>
+        <v>19758</v>
       </c>
       <c r="J52" s="1" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/793/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/791/</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="I53" s="1" t="n">
-        <v>19921</v>
+        <v>19862</v>
       </c>
       <c r="J53" s="1" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="K53" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/797/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/795/</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="I54" s="1" t="n">
-        <v>19977</v>
+        <v>19918</v>
       </c>
       <c r="J54" s="1" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/800/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/797/</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="I55" s="1" t="n">
-        <v>19987</v>
+        <v>19928</v>
       </c>
       <c r="J55" s="1" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="K55" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/800/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/798/</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="I56" s="1" t="n">
-        <v>20030</v>
+        <v>19971</v>
       </c>
       <c r="J56" s="1" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/802/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/799/</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="I57" s="1" t="n">
-        <v>20088</v>
+        <v>20029</v>
       </c>
       <c r="J57" s="1" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/804/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/802/</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="I58" s="1" t="n">
-        <v>20165</v>
+        <v>20106</v>
       </c>
       <c r="J58" s="1" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/807/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/805/</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="I59" s="1" t="n">
-        <v>20307</v>
+        <v>20248</v>
       </c>
       <c r="J59" s="1" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/813/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/810/</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="I60" s="1" t="n">
-        <v>20317</v>
+        <v>20259</v>
       </c>
       <c r="J60" s="1" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/813/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/811/</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="I61" s="1" t="n">
-        <v>20476</v>
+        <v>20419</v>
       </c>
       <c r="J61" s="1" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/820/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/817/</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="I62" s="1" t="n">
-        <v>20764</v>
+        <v>20712</v>
       </c>
       <c r="J62" s="1" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/831/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/829/</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="I63" s="1" t="n">
-        <v>20805</v>
+        <v>20754</v>
       </c>
       <c r="J63" s="1" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/831/</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="I64" s="1" t="n">
-        <v>20849</v>
+        <v>20801</v>
       </c>
       <c r="J64" s="1" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="K64" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/834/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="I65" s="1" t="n">
-        <v>20882</v>
+        <v>20836</v>
       </c>
       <c r="J65" s="1" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/836/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/834/</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="I66" s="1" t="n">
-        <v>20906</v>
+        <v>20860</v>
       </c>
       <c r="J66" s="1" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/837/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/835/</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="I67" s="1" t="n">
-        <v>21011</v>
+        <v>20968</v>
       </c>
       <c r="J67" s="1" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/841/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/839/</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="I68" s="1" t="n">
-        <v>21045</v>
+        <v>21003</v>
       </c>
       <c r="J68" s="1" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K68" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/842/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/841/</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="I69" s="1" t="n">
-        <v>21114</v>
+        <v>21074</v>
       </c>
       <c r="J69" s="1" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/845/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/843/</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="I70" s="1" t="n">
-        <v>21172</v>
+        <v>21132</v>
       </c>
       <c r="J70" s="1" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/847/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/846/</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="I71" s="1" t="n">
-        <v>21195</v>
+        <v>21156</v>
       </c>
       <c r="J71" s="1" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/848/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/847/</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="I72" s="1" t="n">
-        <v>21220</v>
+        <v>21182</v>
       </c>
       <c r="J72" s="1" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/849/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/848/</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="I73" s="1" t="n">
-        <v>21232</v>
+        <v>21194</v>
       </c>
       <c r="J73" s="1" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K73" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/850/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/848/</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="I74" s="1" t="n">
-        <v>21242</v>
+        <v>21204</v>
       </c>
       <c r="J74" s="1" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/850/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/849/</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="I75" s="1" t="n">
-        <v>21275</v>
+        <v>21238</v>
       </c>
       <c r="J75" s="1" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/851/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/850/</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="I76" s="1" t="n">
-        <v>21297</v>
+        <v>21260</v>
       </c>
       <c r="J76" s="1" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/852/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/851/</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="I77" s="1" t="n">
-        <v>21321</v>
+        <v>21287</v>
       </c>
       <c r="J77" s="1" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/853/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/852/</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="I78" s="1" t="n">
-        <v>21328</v>
+        <v>21294</v>
       </c>
       <c r="J78" s="1" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/854/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/852/</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I79" s="1" t="n">
-        <v>21334</v>
+        <v>21300</v>
       </c>
       <c r="J79" s="1" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/854/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/852/</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="I80" s="1" t="n">
-        <v>21338</v>
+        <v>21305</v>
       </c>
       <c r="J80" s="1" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/854/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/853/</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="I81" s="1" t="n">
-        <v>21409</v>
+        <v>21376</v>
       </c>
       <c r="J81" s="1" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="K81" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/857/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/856/</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="I82" s="1" t="n">
-        <v>21448</v>
+        <v>21417</v>
       </c>
       <c r="J82" s="1" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="K82" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/858/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/857/</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="I83" s="1" t="n">
-        <v>21482</v>
+        <v>21451</v>
       </c>
       <c r="J83" s="1" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/859/</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="I84" s="1" t="n">
-        <v>21489</v>
+        <v>21458</v>
       </c>
       <c r="J84" s="1" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/859/</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="I85" s="1" t="n">
-        <v>21512</v>
+        <v>21482</v>
       </c>
       <c r="J85" s="1" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/861/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="I86" s="1" t="n">
-        <v>21516</v>
+        <v>21486</v>
       </c>
       <c r="J86" s="1" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/861/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="I87" s="1" t="n">
-        <v>21523</v>
+        <v>21493</v>
       </c>
       <c r="J87" s="1" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/861/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="I88" s="1" t="n">
-        <v>21531</v>
+        <v>21501</v>
       </c>
       <c r="J88" s="1" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/862/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/861/</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="I89" s="1" t="n">
-        <v>21533</v>
+        <v>21503</v>
       </c>
       <c r="J89" s="1" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/862/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/861/</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="I90" s="1" t="n">
-        <v>21651</v>
+        <v>21623</v>
       </c>
       <c r="J90" s="1" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="K90" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/865/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="I91" s="1" t="n">
-        <v>21670</v>
+        <v>21642</v>
       </c>
       <c r="J91" s="1" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="K91" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="I92" s="1" t="n">
-        <v>21686</v>
+        <v>21658</v>
       </c>
       <c r="J92" s="1" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="K92" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
-          <t>DHARANI P</t>
+          <t>ILAMUGUNTHAN N</t>
         </is>
       </c>
       <c r="G93" s="1" t="inlineStr">
         <is>
-          <t>20cs021</t>
+          <t>ilamugunthan</t>
         </is>
       </c>
       <c r="H93" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="I93" s="1" t="n">
-        <v>21692</v>
+        <v>21660</v>
       </c>
       <c r="J93" s="1" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K93" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3510,21 +3510,21 @@
       </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
-          <t>PRASANNA K M</t>
+          <t>DHARANI P</t>
         </is>
       </c>
       <c r="G94" s="1" t="inlineStr">
         <is>
-          <t>_prasanna_k_m_</t>
+          <t>20cs021</t>
         </is>
       </c>
       <c r="H94" s="1" t="inlineStr">
         <is>
-          <t>III year CSE B</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I94" s="1" t="n">
-        <v>21695</v>
+        <v>21664</v>
       </c>
       <c r="J94" s="1" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="K94" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3543,12 +3543,12 @@
       </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
-          <t>PRANESH S</t>
+          <t>PRASANNA K M</t>
         </is>
       </c>
       <c r="G95" s="1" t="inlineStr">
         <is>
-          <t>pranesh_22</t>
+          <t>_prasanna_k_m_</t>
         </is>
       </c>
       <c r="H95" s="1" t="inlineStr">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="I95" s="1" t="n">
-        <v>21698</v>
+        <v>21667</v>
       </c>
       <c r="J95" s="1" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="K95" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3576,21 +3576,21 @@
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t>SIVANARAYAN J</t>
+          <t>PRANESH S</t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>sivanarayan</t>
+          <t>pranesh_22</t>
         </is>
       </c>
       <c r="H96" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE B</t>
         </is>
       </c>
       <c r="I96" s="1" t="n">
-        <v>21702</v>
+        <v>21670</v>
       </c>
       <c r="J96" s="1" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="K96" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/869/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
-          <t>VISHAL KHUMAR R</t>
+          <t>SIVANARAYAN J</t>
         </is>
       </c>
       <c r="G97" s="1" t="inlineStr">
         <is>
-          <t>vishalkhumar_r</t>
+          <t>sivanarayan</t>
         </is>
       </c>
       <c r="H97" s="1" t="inlineStr">
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="I97" s="1" t="n">
-        <v>21703</v>
+        <v>21674</v>
       </c>
       <c r="J97" s="1" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="K97" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/869/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
-          <t>VISHNUPRABHU R</t>
+          <t>VISHAL KHUMAR R</t>
         </is>
       </c>
       <c r="G98" s="1" t="inlineStr">
         <is>
-          <t>user1652be</t>
+          <t>vishalkhumar_r</t>
         </is>
       </c>
       <c r="H98" s="1" t="inlineStr">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="I98" s="1" t="n">
-        <v>21714</v>
+        <v>21675</v>
       </c>
       <c r="J98" s="1" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="K98" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/869/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       </c>
       <c r="F99" s="1" t="inlineStr">
         <is>
-          <t>SHAVAL KHAN M</t>
+          <t>VISHNUPRABHU R</t>
         </is>
       </c>
       <c r="G99" s="1" t="inlineStr">
         <is>
-          <t>shavalkhan</t>
+          <t>user1652be</t>
         </is>
       </c>
       <c r="H99" s="1" t="inlineStr">
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="I99" s="1" t="n">
-        <v>21769</v>
+        <v>21686</v>
       </c>
       <c r="J99" s="1" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="K99" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
         </is>
       </c>
     </row>
@@ -3708,21 +3708,21 @@
       </c>
       <c r="F100" s="1" t="inlineStr">
         <is>
-          <t>KARTHEKEIAN K R</t>
+          <t>SHAVAL KHAN M</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
         <is>
-          <t>karthekeian</t>
+          <t>shavalkhan</t>
         </is>
       </c>
       <c r="H100" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I100" s="1" t="n">
-        <v>21789</v>
+        <v>21741</v>
       </c>
       <c r="J100" s="1" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="K100" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/872/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/870/</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="F101" s="1" t="inlineStr">
         <is>
-          <t>DIVYA PRIYA S</t>
+          <t>KARTHEKEIAN K R</t>
         </is>
       </c>
       <c r="G101" s="1" t="inlineStr">
         <is>
-          <t>divyapriya_s</t>
+          <t>karthekeian</t>
         </is>
       </c>
       <c r="H101" s="1" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="I101" s="1" t="n">
-        <v>21793</v>
+        <v>21761</v>
       </c>
       <c r="J101" s="1" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="K101" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/872/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
         </is>
       </c>
     </row>
@@ -3774,21 +3774,21 @@
       </c>
       <c r="F102" s="1" t="inlineStr">
         <is>
-          <t>SAI SIDDHARTH</t>
+          <t>DIVYA PRIYA S</t>
         </is>
       </c>
       <c r="G102" s="1" t="inlineStr">
         <is>
-          <t>sai_sid_2002</t>
+          <t>divyapriya_s</t>
         </is>
       </c>
       <c r="H102" s="1" t="inlineStr">
         <is>
-          <t>III year CSE B</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I102" s="1" t="n">
-        <v>21794</v>
+        <v>21765</v>
       </c>
       <c r="J102" s="1" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="K102" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/872/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
         </is>
       </c>
     </row>
@@ -3807,21 +3807,21 @@
       </c>
       <c r="F103" s="1" t="inlineStr">
         <is>
-          <t>GEETHANJALI G</t>
+          <t>SAI SIDDHARTH</t>
         </is>
       </c>
       <c r="G103" s="1" t="inlineStr">
         <is>
-          <t>geethanjali_g</t>
+          <t>sai_sid_2002</t>
         </is>
       </c>
       <c r="H103" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE B</t>
         </is>
       </c>
       <c r="I103" s="1" t="n">
-        <v>21799</v>
+        <v>21766</v>
       </c>
       <c r="J103" s="1" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="K103" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/872/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
         </is>
       </c>
     </row>
@@ -3840,21 +3840,21 @@
       </c>
       <c r="F104" s="1" t="inlineStr">
         <is>
-          <t>SELVENDHIRAN R</t>
+          <t>GEETHANJALI G</t>
         </is>
       </c>
       <c r="G104" s="1" t="inlineStr">
         <is>
-          <t>selva_7</t>
+          <t>geethanjali_g</t>
         </is>
       </c>
       <c r="H104" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I104" s="1" t="n">
-        <v>21809</v>
+        <v>21771</v>
       </c>
       <c r="J104" s="1" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="K104" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/873/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
         </is>
       </c>
     </row>
@@ -3873,21 +3873,21 @@
       </c>
       <c r="F105" s="1" t="inlineStr">
         <is>
-          <t>KISHOREVEL I V</t>
+          <t>SELVENDHIRAN R</t>
         </is>
       </c>
       <c r="G105" s="1" t="inlineStr">
         <is>
-          <t>vel_02</t>
+          <t>selva_7</t>
         </is>
       </c>
       <c r="H105" s="1" t="inlineStr">
         <is>
-          <t>III year CSE B</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I105" s="1" t="n">
-        <v>21838</v>
+        <v>21782</v>
       </c>
       <c r="J105" s="1" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K105" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/874/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/872/</t>
         </is>
       </c>
     </row>
@@ -3906,21 +3906,21 @@
       </c>
       <c r="F106" s="1" t="inlineStr">
         <is>
-          <t>GOWSHIKAN S</t>
+          <t>KISHOREVEL I V</t>
         </is>
       </c>
       <c r="G106" s="1" t="inlineStr">
         <is>
-          <t>gowshikan_s</t>
+          <t>vel_02</t>
         </is>
       </c>
       <c r="H106" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE B</t>
         </is>
       </c>
       <c r="I106" s="1" t="n">
-        <v>21849</v>
+        <v>21811</v>
       </c>
       <c r="J106" s="1" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="K106" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/874/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/873/</t>
         </is>
       </c>
     </row>
@@ -3939,21 +3939,21 @@
       </c>
       <c r="F107" s="1" t="inlineStr">
         <is>
-          <t>SREE GOUSHIK RAJAA R</t>
+          <t>GOWSHIKAN S</t>
         </is>
       </c>
       <c r="G107" s="1" t="inlineStr">
         <is>
-          <t>bloodlust</t>
+          <t>gowshikan_s</t>
         </is>
       </c>
       <c r="H107" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I107" s="1" t="n">
-        <v>21868</v>
+        <v>21822</v>
       </c>
       <c r="J107" s="1" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K107" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/873/</t>
         </is>
       </c>
     </row>
@@ -3972,21 +3972,21 @@
       </c>
       <c r="F108" s="1" t="inlineStr">
         <is>
-          <t>GOKUL S</t>
+          <t>SREE GOUSHIK RAJAA R</t>
         </is>
       </c>
       <c r="G108" s="1" t="inlineStr">
         <is>
-          <t>gokulcsr</t>
+          <t>bloodlust</t>
         </is>
       </c>
       <c r="H108" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I108" s="1" t="n">
-        <v>21875</v>
+        <v>21842</v>
       </c>
       <c r="J108" s="1" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="K108" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/874/</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       </c>
       <c r="F109" s="1" t="inlineStr">
         <is>
-          <t>DHANUSH B</t>
+          <t>GOKUL S</t>
         </is>
       </c>
       <c r="G109" s="1" t="inlineStr">
         <is>
-          <t>user4297oq</t>
+          <t>gokulcsr</t>
         </is>
       </c>
       <c r="H109" s="1" t="inlineStr">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="I109" s="1" t="n">
-        <v>21882</v>
+        <v>21850</v>
       </c>
       <c r="J109" s="1" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="K109" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/874/</t>
         </is>
       </c>
     </row>
@@ -4038,12 +4038,12 @@
       </c>
       <c r="F110" s="1" t="inlineStr">
         <is>
-          <t>KARTHIK V</t>
+          <t>DHANUSH B</t>
         </is>
       </c>
       <c r="G110" s="1" t="inlineStr">
         <is>
-          <t>karthikv27</t>
+          <t>user4297oq</t>
         </is>
       </c>
       <c r="H110" s="1" t="inlineStr">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="I110" s="1" t="n">
-        <v>21888</v>
+        <v>21857</v>
       </c>
       <c r="J110" s="1" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="K110" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
         </is>
       </c>
     </row>
@@ -4071,21 +4071,21 @@
       </c>
       <c r="F111" s="1" t="inlineStr">
         <is>
-          <t>SRIMATHI G</t>
+          <t>KARTHIK V</t>
         </is>
       </c>
       <c r="G111" s="1" t="inlineStr">
         <is>
-          <t>srimathi140</t>
+          <t>karthikv27</t>
         </is>
       </c>
       <c r="H111" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I111" s="1" t="n">
-        <v>21893</v>
+        <v>21863</v>
       </c>
       <c r="J111" s="1" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="K111" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
         </is>
       </c>
     </row>
@@ -4104,21 +4104,21 @@
       </c>
       <c r="F112" s="1" t="inlineStr">
         <is>
-          <t>CHARAN SRI KRISHNA S</t>
+          <t>SRIMATHI G</t>
         </is>
       </c>
       <c r="G112" s="1" t="inlineStr">
         <is>
-          <t>charansri795</t>
+          <t>srimathi140</t>
         </is>
       </c>
       <c r="H112" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I112" s="1" t="n">
-        <v>21898</v>
+        <v>21868</v>
       </c>
       <c r="J112" s="1" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="K112" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
         </is>
       </c>
     </row>
@@ -4137,21 +4137,21 @@
       </c>
       <c r="F113" s="1" t="inlineStr">
         <is>
-          <t>SARVESH V V</t>
+          <t>CHARAN SRI KRISHNA S</t>
         </is>
       </c>
       <c r="G113" s="1" t="inlineStr">
         <is>
-          <t>sarvesh01</t>
+          <t>charansri795</t>
         </is>
       </c>
       <c r="H113" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I113" s="1" t="n">
-        <v>21905</v>
+        <v>21873</v>
       </c>
       <c r="J113" s="1" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="K113" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/877/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
         </is>
       </c>
     </row>
@@ -4170,21 +4170,21 @@
       </c>
       <c r="F114" s="1" t="inlineStr">
         <is>
-          <t>KAVINKUMAR S</t>
+          <t>SARVESH V V</t>
         </is>
       </c>
       <c r="G114" s="1" t="inlineStr">
         <is>
-          <t>kavinkumar_s</t>
+          <t>sarvesh01</t>
         </is>
       </c>
       <c r="H114" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I114" s="1" t="n">
-        <v>21907</v>
+        <v>21881</v>
       </c>
       <c r="J114" s="1" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="K114" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/877/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
         </is>
       </c>
     </row>
@@ -4203,21 +4203,21 @@
       </c>
       <c r="F115" s="1" t="inlineStr">
         <is>
-          <t>VINISHA M</t>
+          <t>KAVINKUMAR S</t>
         </is>
       </c>
       <c r="G115" s="1" t="inlineStr">
         <is>
-          <t>vinisha_m</t>
+          <t>kavinkumar_s</t>
         </is>
       </c>
       <c r="H115" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I115" s="1" t="n">
-        <v>21917</v>
+        <v>21883</v>
       </c>
       <c r="J115" s="1" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K115" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/877/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
         </is>
       </c>
     </row>
@@ -4236,21 +4236,21 @@
       </c>
       <c r="F116" s="1" t="inlineStr">
         <is>
-          <t>MOHANAPRASATH M</t>
+          <t>VINISHA M</t>
         </is>
       </c>
       <c r="G116" s="1" t="inlineStr">
         <is>
-          <t>mohan_09</t>
+          <t>vinisha_m</t>
         </is>
       </c>
       <c r="H116" s="1" t="inlineStr">
         <is>
-          <t>III year CSE B</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I116" s="1" t="n">
-        <v>21951</v>
+        <v>21894</v>
       </c>
       <c r="J116" s="1" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="K116" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/879/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
         </is>
       </c>
     </row>
@@ -4269,21 +4269,21 @@
       </c>
       <c r="F117" s="1" t="inlineStr">
         <is>
-          <t>SREESHARAN N</t>
+          <t>MOHANAPRASATH M</t>
         </is>
       </c>
       <c r="G117" s="1" t="inlineStr">
         <is>
-          <t>sharan20cs138</t>
+          <t>mohan_09</t>
         </is>
       </c>
       <c r="H117" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE B</t>
         </is>
       </c>
       <c r="I117" s="1" t="n">
-        <v>22006</v>
+        <v>21929</v>
       </c>
       <c r="J117" s="1" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="K117" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/881/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/878/</t>
         </is>
       </c>
     </row>
@@ -4302,21 +4302,21 @@
       </c>
       <c r="F118" s="1" t="inlineStr">
         <is>
-          <t>SANJAY N</t>
+          <t>SREESHARAN N</t>
         </is>
       </c>
       <c r="G118" s="1" t="inlineStr">
         <is>
-          <t>sanjay_n_2003</t>
+          <t>sharan20cs138</t>
         </is>
       </c>
       <c r="H118" s="1" t="inlineStr">
         <is>
-          <t>III year CSE B</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I118" s="1" t="n">
-        <v>22170</v>
+        <v>21987</v>
       </c>
       <c r="J118" s="1" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="K118" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/887/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/880/</t>
         </is>
       </c>
     </row>
@@ -4335,21 +4335,21 @@
       </c>
       <c r="F119" s="1" t="inlineStr">
         <is>
-          <t>KEERTHANA P</t>
+          <t>SANJAY N</t>
         </is>
       </c>
       <c r="G119" s="1" t="inlineStr">
         <is>
-          <t>user5187jk</t>
+          <t>sanjay_n_2003</t>
         </is>
       </c>
       <c r="H119" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE B</t>
         </is>
       </c>
       <c r="I119" s="1" t="n">
-        <v>22194</v>
+        <v>22158</v>
       </c>
       <c r="J119" s="1" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="K119" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/888/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/887/</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="F120" s="1" t="inlineStr">
         <is>
-          <t>GOWREESH A M</t>
+          <t>KEERTHANA P</t>
         </is>
       </c>
       <c r="G120" s="1" t="inlineStr">
         <is>
-          <t>gowreesh_a_m</t>
+          <t>user5187jk</t>
         </is>
       </c>
       <c r="H120" s="1" t="inlineStr">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="I120" s="1" t="n">
-        <v>22418</v>
+        <v>22182</v>
       </c>
       <c r="J120" s="1" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="K120" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/897/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/888/</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="F121" s="1" t="inlineStr">
         <is>
-          <t>DINESH P</t>
+          <t>ABBINAVU T</t>
         </is>
       </c>
       <c r="G121" s="1" t="inlineStr">
         <is>
-          <t>dineshpraba</t>
+          <t>20cs001</t>
         </is>
       </c>
       <c r="H121" s="1" t="inlineStr">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="I121" s="1" t="n">
-        <v>22506</v>
+        <v>22389</v>
       </c>
       <c r="J121" s="1" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="K121" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/901/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/896/</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="F122" s="1" t="inlineStr">
         <is>
-          <t>HEMRAJ KUMAR V S</t>
+          <t>GOWREESH A M</t>
         </is>
       </c>
       <c r="G122" s="1" t="inlineStr">
         <is>
-          <t>hems348</t>
+          <t>gowreesh_a_m</t>
         </is>
       </c>
       <c r="H122" s="1" t="inlineStr">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="I122" s="1" t="n">
-        <v>22510</v>
+        <v>22413</v>
       </c>
       <c r="J122" s="1" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="K122" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/901/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/897/</t>
         </is>
       </c>
     </row>
@@ -4467,21 +4467,21 @@
       </c>
       <c r="F123" s="1" t="inlineStr">
         <is>
-          <t>RAHUL RAJ R</t>
+          <t>DINESH P</t>
         </is>
       </c>
       <c r="G123" s="1" t="inlineStr">
         <is>
-          <t>rahulrajr</t>
+          <t>dineshpraba</t>
         </is>
       </c>
       <c r="H123" s="1" t="inlineStr">
         <is>
-          <t>III year CSE B</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I123" s="1" t="n">
-        <v>22560</v>
+        <v>22503</v>
       </c>
       <c r="J123" s="1" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="K123" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/903/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/901/</t>
         </is>
       </c>
     </row>
@@ -4500,12 +4500,12 @@
       </c>
       <c r="F124" s="1" t="inlineStr">
         <is>
-          <t>JAYANTH N J</t>
+          <t>HEMRAJ KUMAR V S</t>
         </is>
       </c>
       <c r="G124" s="1" t="inlineStr">
         <is>
-          <t>jayanth_n_j</t>
+          <t>hems348</t>
         </is>
       </c>
       <c r="H124" s="1" t="inlineStr">
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="I124" s="1" t="n">
-        <v>22612</v>
+        <v>22507</v>
       </c>
       <c r="J124" s="1" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="K124" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/905/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/901/</t>
         </is>
       </c>
     </row>
@@ -4533,21 +4533,21 @@
       </c>
       <c r="F125" s="1" t="inlineStr">
         <is>
-          <t>ESHA MALAVIKA V S</t>
+          <t>RAHUL RAJ R</t>
         </is>
       </c>
       <c r="G125" s="1" t="inlineStr">
         <is>
-          <t>eshamalavika</t>
+          <t>rahulrajr</t>
         </is>
       </c>
       <c r="H125" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE B</t>
         </is>
       </c>
       <c r="I125" s="1" t="n">
-        <v>22627</v>
+        <v>22559</v>
       </c>
       <c r="J125" s="1" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="K125" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/906/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/903/</t>
         </is>
       </c>
     </row>
@@ -4566,21 +4566,21 @@
       </c>
       <c r="F126" s="1" t="inlineStr">
         <is>
-          <t>VINUDHARSHINI R</t>
+          <t>JAYANTH N J</t>
         </is>
       </c>
       <c r="G126" s="1" t="inlineStr">
         <is>
-          <t>vinudharshini_r</t>
+          <t>jayanth_n_j</t>
         </is>
       </c>
       <c r="H126" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I126" s="1" t="n">
-        <v>22633</v>
+        <v>22611</v>
       </c>
       <c r="J126" s="1" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="K126" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/906/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/905/</t>
         </is>
       </c>
     </row>
@@ -4599,21 +4599,21 @@
       </c>
       <c r="F127" s="1" t="inlineStr">
         <is>
-          <t>VARSHIKHA N R</t>
+          <t>ESHA MALAVIKA V S</t>
         </is>
       </c>
       <c r="G127" s="1" t="inlineStr">
         <is>
-          <t>varshikha_nr</t>
+          <t>eshamalavika</t>
         </is>
       </c>
       <c r="H127" s="1" t="inlineStr">
         <is>
-          <t>III year CSE C</t>
+          <t>III year CSE A</t>
         </is>
       </c>
       <c r="I127" s="1" t="n">
-        <v>22655</v>
+        <v>22626</v>
       </c>
       <c r="J127" s="1" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="K127" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/907/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/906/</t>
         </is>
       </c>
     </row>
@@ -4632,21 +4632,21 @@
       </c>
       <c r="F128" s="1" t="inlineStr">
         <is>
-          <t>KANIPRIYA R</t>
+          <t>VINUDHARSHINI R</t>
         </is>
       </c>
       <c r="G128" s="1" t="inlineStr">
         <is>
-          <t>kani_03</t>
+          <t>vinudharshini_r</t>
         </is>
       </c>
       <c r="H128" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I128" s="1" t="n">
-        <v>22701</v>
+        <v>22632</v>
       </c>
       <c r="J128" s="1" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="K128" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/909/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/906/</t>
         </is>
       </c>
     </row>
@@ -4665,21 +4665,21 @@
       </c>
       <c r="F129" s="1" t="inlineStr">
         <is>
-          <t>DIVAKAR V S</t>
+          <t>VARSHIKHA N R</t>
         </is>
       </c>
       <c r="G129" s="1" t="inlineStr">
         <is>
-          <t>20cs023</t>
+          <t>varshikha_nr</t>
         </is>
       </c>
       <c r="H129" s="1" t="inlineStr">
         <is>
-          <t>III year CSE A</t>
+          <t>III year CSE C</t>
         </is>
       </c>
       <c r="I129" s="1" t="n">
-        <v>22710</v>
+        <v>22654</v>
       </c>
       <c r="J129" s="1" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="K129" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/909/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/907/</t>
         </is>
       </c>
     </row>
@@ -4698,28 +4698,94 @@
       </c>
       <c r="F130" s="1" t="inlineStr">
         <is>
+          <t>KANIPRIYA R</t>
+        </is>
+      </c>
+      <c r="G130" s="1" t="inlineStr">
+        <is>
+          <t>kani_03</t>
+        </is>
+      </c>
+      <c r="H130" s="1" t="inlineStr">
+        <is>
+          <t>III year CSE A</t>
+        </is>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>22702</v>
+      </c>
+      <c r="J130" s="1" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="K130" s="1" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/909/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="F131" s="1" t="inlineStr">
+        <is>
+          <t>DIVAKAR V S</t>
+        </is>
+      </c>
+      <c r="G131" s="1" t="inlineStr">
+        <is>
+          <t>20cs023</t>
+        </is>
+      </c>
+      <c r="H131" s="1" t="inlineStr">
+        <is>
+          <t>III year CSE A</t>
+        </is>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>22711</v>
+      </c>
+      <c r="J131" s="1" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="K131" s="1" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/909/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F132" s="1" t="inlineStr">
+        <is>
           <t>ARUN KUMAR P</t>
         </is>
       </c>
-      <c r="G130" s="1" t="inlineStr">
+      <c r="G132" s="1" t="inlineStr">
         <is>
           <t>arun_kumar_p</t>
         </is>
       </c>
-      <c r="H130" s="1" t="inlineStr">
+      <c r="H132" s="1" t="inlineStr">
         <is>
           <t>III year CSE A</t>
         </is>
       </c>
-      <c r="I130" s="1" t="n">
-        <v>22719</v>
-      </c>
-      <c r="J130" s="1" t="inlineStr">
-        <is>
-          <t>0/4</t>
-        </is>
-      </c>
-      <c r="K130" s="1" t="inlineStr">
+      <c r="I132" s="1" t="n">
+        <v>22720</v>
+      </c>
+      <c r="J132" s="1" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="K132" s="1" t="inlineStr">
         <is>
           <t>https://leetcode.com/contest/weekly-contest-308/ranking/909/</t>
         </is>
@@ -4826,7 +4892,7 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13803</v>
+        <v>13732</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -4835,7 +4901,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/553/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/550/</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4925,7 @@
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19999</v>
+        <v>19940</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
@@ -4868,7 +4934,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/800/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/798/</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4958,7 @@
         </is>
       </c>
       <c r="I7" s="5" t="n">
-        <v>21659</v>
+        <v>21631</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
@@ -4901,7 +4967,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5072,7 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>19617</v>
+        <v>19557</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -5015,7 +5081,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/785/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/783/</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5105,7 @@
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>20864</v>
+        <v>20818</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
@@ -5048,7 +5114,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/835/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5138,7 @@
         </is>
       </c>
       <c r="I7" s="5" t="n">
-        <v>20868</v>
+        <v>20822</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
@@ -5081,7 +5147,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/835/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5171,7 @@
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>22357</v>
+        <v>22350</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -5114,7 +5180,7 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/895/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/894/</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5285,7 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>19517</v>
+        <v>19457</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -5228,7 +5294,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/781/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/779/</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5318,7 @@
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19524</v>
+        <v>19464</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
@@ -5261,7 +5327,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/781/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/779/</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5351,7 @@
         </is>
       </c>
       <c r="I7" s="5" t="n">
-        <v>20035</v>
+        <v>19976</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
@@ -5294,7 +5360,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/802/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/800/</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5384,7 @@
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>20806</v>
+        <v>20755</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -5327,7 +5393,7 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/831/</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5417,7 @@
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>20825</v>
+        <v>20776</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -5360,7 +5426,7 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/832/</t>
         </is>
       </c>
     </row>
@@ -5384,7 +5450,7 @@
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>20852</v>
+        <v>20804</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -5393,7 +5459,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/835/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/833/</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5483,7 @@
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>21202</v>
+        <v>21164</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -5426,7 +5492,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/849/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/847/</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5516,7 @@
         </is>
       </c>
       <c r="I12" s="1" t="n">
-        <v>21326</v>
+        <v>21292</v>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
@@ -5459,7 +5525,7 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/854/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/852/</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5549,7 @@
         </is>
       </c>
       <c r="I13" s="1" t="n">
-        <v>21356</v>
+        <v>21323</v>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
@@ -5492,7 +5558,7 @@
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/855/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/853/</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5582,7 @@
         </is>
       </c>
       <c r="I14" s="1" t="n">
-        <v>21500</v>
+        <v>21469</v>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
@@ -5525,7 +5591,7 @@
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/859/</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5615,7 @@
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>21544</v>
+        <v>21515</v>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
@@ -5558,7 +5624,7 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/862/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/861/</t>
         </is>
       </c>
     </row>
@@ -5582,7 +5648,7 @@
         </is>
       </c>
       <c r="I16" s="1" t="n">
-        <v>21656</v>
+        <v>21628</v>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
@@ -5591,7 +5657,7 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5681,7 @@
         </is>
       </c>
       <c r="I17" s="1" t="n">
-        <v>21682</v>
+        <v>21654</v>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
@@ -5624,7 +5690,7 @@
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5714,7 @@
         </is>
       </c>
       <c r="I18" s="1" t="n">
-        <v>21684</v>
+        <v>21656</v>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
@@ -5657,7 +5723,7 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5747,7 @@
         </is>
       </c>
       <c r="I19" s="1" t="n">
-        <v>21691</v>
+        <v>21663</v>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
@@ -5690,7 +5756,7 @@
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5780,7 @@
         </is>
       </c>
       <c r="I20" s="1" t="n">
-        <v>21728</v>
+        <v>21700</v>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
@@ -5723,7 +5789,7 @@
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/870/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/868/</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5813,7 @@
         </is>
       </c>
       <c r="I21" s="1" t="n">
-        <v>21773</v>
+        <v>21745</v>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
@@ -5756,7 +5822,7 @@
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/870/</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5846,7 @@
         </is>
       </c>
       <c r="I22" s="1" t="n">
-        <v>21798</v>
+        <v>21770</v>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
@@ -5789,7 +5855,7 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/872/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5879,7 @@
         </is>
       </c>
       <c r="I23" s="1" t="n">
-        <v>21896</v>
+        <v>21871</v>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
@@ -5822,7 +5888,7 @@
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/876/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/875/</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5993,7 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>14433</v>
+        <v>14362</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -5936,7 +6002,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/578/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/575/</t>
         </is>
       </c>
     </row>
@@ -5960,7 +6026,7 @@
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15391</v>
+        <v>15320</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
@@ -5969,7 +6035,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/616/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/613/</t>
         </is>
       </c>
     </row>
@@ -5993,7 +6059,7 @@
         </is>
       </c>
       <c r="I7" s="5" t="n">
-        <v>18503</v>
+        <v>18436</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
@@ -6002,7 +6068,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/741/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/738/</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6092,7 @@
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>19710</v>
+        <v>19650</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -6035,7 +6101,7 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/789/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/786/</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6125,7 @@
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>19793</v>
+        <v>19734</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -6068,7 +6134,7 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/792/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/790/</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6158,7 @@
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>21455</v>
+        <v>21424</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -6101,7 +6167,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/859/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/857/</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6191,7 @@
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>21774</v>
+        <v>21746</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -6134,7 +6200,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/871/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/870/</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6305,7 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17777</v>
+        <v>17710</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -6248,7 +6314,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/712/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/709/</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6338,7 @@
         </is>
       </c>
       <c r="I6" s="5" t="n">
-        <v>21086</v>
+        <v>21046</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
@@ -6281,7 +6347,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/844/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/842/</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6371,7 @@
         </is>
       </c>
       <c r="I7" s="5" t="n">
-        <v>21207</v>
+        <v>21169</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
@@ -6314,7 +6380,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/849/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/847/</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6404,7 @@
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>21290</v>
+        <v>21253</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -6347,7 +6413,7 @@
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/852/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/851/</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6437,7 @@
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>21306</v>
+        <v>21271</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -6380,7 +6446,7 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/853/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/851/</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6470,7 @@
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>21467</v>
+        <v>21436</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -6413,7 +6479,7 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/859/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/858/</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6503,7 @@
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>21493</v>
+        <v>21462</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -6446,7 +6512,7 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/860/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/859/</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6536,7 @@
         </is>
       </c>
       <c r="I12" s="1" t="n">
-        <v>21627</v>
+        <v>21599</v>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
@@ -6479,7 +6545,7 @@
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/864/</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6569,7 @@
         </is>
       </c>
       <c r="I13" s="1" t="n">
-        <v>21645</v>
+        <v>21617</v>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
@@ -6512,7 +6578,7 @@
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/865/</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6602,7 @@
         </is>
       </c>
       <c r="I14" s="1" t="n">
-        <v>21655</v>
+        <v>21627</v>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
@@ -6545,7 +6611,7 @@
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
         </is>
       </c>
     </row>
@@ -6569,7 +6635,7 @@
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>21668</v>
+        <v>21640</v>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
@@ -6578,7 +6644,7 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6668,7 @@
         </is>
       </c>
       <c r="I16" s="1" t="n">
-        <v>21675</v>
+        <v>21647</v>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
@@ -6611,7 +6677,7 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>https://leetcode.com/contest/weekly-contest-308/ranking/867/</t>
+          <t>https://leetcode.com/contest/weekly-contest-308/ranking/866/</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6701,7 @@
         </is>
       </c>
       <c r="I17" s="1" t="n">
-        <v>22433</v>
+        <v>22429</v>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
